--- a/20171024_Machine Learning Operations_DAMIAN.xlsx
+++ b/20171024_Machine Learning Operations_DAMIAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1&amp; 2 features" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Phase2 feats descriptions" sheetId="3" r:id="rId3"/>
     <sheet name="Phase 3 planned" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -151,19 +151,22 @@
     <t>Client level product complementarity proposal including on-the-fly market basket preparation.</t>
   </si>
   <si>
-    <t xml:space="preserve">New customer or customer without loialty card product recommendations and product complementarity. The final product recommendations system will be usable also for new customers or customers without loialty card. </t>
-  </si>
-  <si>
-    <t>Customer life time analysis including real-time customer churn prediction. Using advanced sequence based deep neural networks each customer will be analyzed and a customer real-time behaviour prediction model will be constructed</t>
-  </si>
-  <si>
-    <t>Recommendation campaing outcome prediction.</t>
+    <t>Product similarity, complementarity, composition/decomposition and seasonality</t>
+  </si>
+  <si>
+    <t>Recommendation campaign outcome prediction.</t>
+  </si>
+  <si>
+    <t>Customer life time analysis including real-time customer churn prediction. Using advanced sequence based deep neural networks each customer will be analyzed and a customer real-time behavior prediction model will be constructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New customer or customer without loyalty card product recommendations and product complementarity. The final product recommendations system will be usable also for new customers or customers without loyalty card. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,14 +535,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -559,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,12 +576,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,17 +595,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,13 +633,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -657,17 +660,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="7"/>
     </row>
   </sheetData>
@@ -684,14 +687,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -711,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -754,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,16 +780,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,15 +805,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
     </row>
   </sheetData>
@@ -826,14 +829,14 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -853,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,10 +867,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,10 +881,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -902,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -916,12 +919,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
     </row>
   </sheetData>
@@ -933,18 +936,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -964,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="28.95" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -978,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -995,10 +998,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -1009,7 +1012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -1017,12 +1020,17 @@
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -1030,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
     </row>
   </sheetData>
